--- a/biology/Médecine/Articulation_tibio-fibulaire_proximale/Articulation_tibio-fibulaire_proximale.xlsx
+++ b/biology/Médecine/Articulation_tibio-fibulaire_proximale/Articulation_tibio-fibulaire_proximale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation tibio-fibulaire proximale (ou articulation péronéo-tibiale supérieure) est l'articulation plane formée par les extrémités proximales du tibia et de la fibula.
 </t>
@@ -511,7 +523,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les surfaces articulaires de l'articulation tibio-fibulaire proximale sont :
 la  facette articulaire fibulaire du tibia plane et arrondie qui est située sur la partie postérieure et médiale du condyle latéral du tibia, elle est orientée en arrière, en bas et en dehors,
@@ -543,7 +557,9 @@
           <t>Moyens d'union</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation tibio-fibulaire proximale est maintenu par la capsule articulaire et les ligaments antérieur et postérieur de la tête de la fibula.
 La membrane interosseuse de la jambe contribue également à la stabilité de l'articulation.
